--- a/data/zenodo/conversion/elec/CHE_convelec_hydrodam.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_hydrodam.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53DFF83-0385-2340-99B1-28BCFD7C6BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBC3911-1B9B-4F4D-B612-08AF302BF4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -679,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,16 +789,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -807,13 +807,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -828,13 +828,13 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -870,26 +870,18 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" t="s">
-        <v>56</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -899,19 +891,25 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -921,19 +919,21 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -943,16 +943,16 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -964,16 +964,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -988,22 +985,19 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>25000</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
         <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>59</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1015,13 +1009,22 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
+      <c r="G17">
+        <v>25000</v>
+      </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1033,16 +1036,13 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>47</v>
+      <c r="H18" t="s">
+        <v>54</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1054,13 +1054,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
@@ -1074,27 +1074,19 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>17114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1110,10 +1102,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
-        <v>19184</v>
+        <v>17114</v>
       </c>
       <c r="H21" t="s">
         <v>46</v>
@@ -1139,10 +1131,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>18506</v>
+        <v>19184</v>
       </c>
       <c r="H22" t="s">
         <v>46</v>
@@ -1168,10 +1160,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>20802</v>
+        <v>18506</v>
       </c>
       <c r="H23" t="s">
         <v>46</v>
@@ -1197,10 +1189,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>22966</v>
+        <v>20802</v>
       </c>
       <c r="H24" t="s">
         <v>46</v>
@@ -1226,10 +1218,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>19449</v>
+        <v>22966</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -1255,10 +1247,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>16029</v>
+        <v>19449</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
@@ -1284,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>20099</v>
+        <v>16029</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
@@ -1313,10 +1305,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>19329</v>
+        <v>20099</v>
       </c>
       <c r="H28" t="s">
         <v>46</v>
@@ -1342,10 +1334,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>23976</v>
+        <v>19329</v>
       </c>
       <c r="H29" t="s">
         <v>46</v>
@@ -1371,10 +1363,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>20285</v>
+        <v>23976</v>
       </c>
       <c r="H30" t="s">
         <v>46</v>
@@ -1400,10 +1392,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>24510</v>
+        <v>20285</v>
       </c>
       <c r="H31" t="s">
         <v>46</v>
@@ -1429,10 +1421,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>18888</v>
+        <v>24510</v>
       </c>
       <c r="H32" t="s">
         <v>46</v>
@@ -1458,10 +1450,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>21047</v>
+        <v>18888</v>
       </c>
       <c r="H33" t="s">
         <v>46</v>
@@ -1487,10 +1479,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>19078</v>
+        <v>21047</v>
       </c>
       <c r="H34" t="s">
         <v>46</v>
@@ -1516,10 +1508,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>17761</v>
+        <v>19078</v>
       </c>
       <c r="H35" t="s">
         <v>46</v>
@@ -1545,10 +1537,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>16738</v>
+        <v>17761</v>
       </c>
       <c r="H36" t="s">
         <v>46</v>
@@ -1574,10 +1566,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>19826</v>
+        <v>16738</v>
       </c>
       <c r="H37" t="s">
         <v>46</v>
@@ -1603,10 +1595,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>20873</v>
+        <v>19826</v>
       </c>
       <c r="H38" t="s">
         <v>46</v>
@@ -1632,10 +1624,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>21026</v>
+        <v>20873</v>
       </c>
       <c r="H39" t="s">
         <v>46</v>
@@ -1661,10 +1653,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>21420</v>
+        <v>21026</v>
       </c>
       <c r="H40" t="s">
         <v>46</v>
@@ -1690,10 +1682,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>19062</v>
+        <v>21420</v>
       </c>
       <c r="H41" t="s">
         <v>46</v>
@@ -1719,10 +1711,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>22074</v>
+        <v>19062</v>
       </c>
       <c r="H42" t="s">
         <v>46</v>
@@ -1748,10 +1740,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>21813</v>
+        <v>22074</v>
       </c>
       <c r="H43" t="s">
         <v>46</v>
@@ -1777,10 +1769,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>22065</v>
+        <v>21813</v>
       </c>
       <c r="H44" t="s">
         <v>46</v>
@@ -1806,10 +1798,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>22891</v>
+        <v>22065</v>
       </c>
       <c r="H45" t="s">
         <v>46</v>
@@ -1835,10 +1827,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>19752</v>
+        <v>22891</v>
       </c>
       <c r="H46" t="s">
         <v>46</v>
@@ -1864,10 +1856,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>20720</v>
+        <v>19752</v>
       </c>
       <c r="H47" t="s">
         <v>46</v>
@@ -1893,10 +1885,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>20520</v>
+        <v>20720</v>
       </c>
       <c r="H48" t="s">
         <v>46</v>
@@ -1922,10 +1914,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>22856</v>
+        <v>20520</v>
       </c>
       <c r="H49" t="s">
         <v>46</v>
@@ -1945,22 +1937,25 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>6460</v>
+        <v>22856</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1977,7 +1972,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>6460</v>
@@ -1988,12 +1983,6 @@
       <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="J51" t="s">
-        <v>50</v>
-      </c>
-      <c r="L51" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2009,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>6460</v>
@@ -2020,6 +2009,12 @@
       <c r="I52" t="s">
         <v>47</v>
       </c>
+      <c r="J52" t="s">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2035,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>6460</v>
@@ -2061,7 +2056,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>6460</v>
@@ -2087,7 +2082,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
         <v>6460</v>
@@ -2113,22 +2108,16 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>7636</v>
+        <v>6460</v>
       </c>
       <c r="H56" t="s">
         <v>49</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
-      </c>
-      <c r="J56" t="s">
-        <v>50</v>
-      </c>
-      <c r="L56" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2145,7 +2134,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
         <v>7636</v>
@@ -2156,6 +2145,12 @@
       <c r="I57" t="s">
         <v>47</v>
       </c>
+      <c r="J57" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -2171,7 +2166,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
         <v>7636</v>
@@ -2197,7 +2192,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
         <v>7636</v>
@@ -2223,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
         <v>7636</v>
@@ -2249,22 +2244,16 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>7704</v>
+        <v>7636</v>
       </c>
       <c r="H61" t="s">
         <v>49</v>
       </c>
       <c r="I61" t="s">
         <v>47</v>
-      </c>
-      <c r="J61" t="s">
-        <v>50</v>
-      </c>
-      <c r="L61" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2281,7 +2270,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
         <v>7704</v>
@@ -2292,6 +2281,12 @@
       <c r="I62" t="s">
         <v>47</v>
       </c>
+      <c r="J62" t="s">
+        <v>50</v>
+      </c>
+      <c r="L62" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -2307,7 +2302,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
         <v>7704</v>
@@ -2333,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
         <v>7704</v>
@@ -2345,7 +2340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
         <v>7704</v>
@@ -2371,7 +2366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2385,10 +2380,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>7974</v>
+        <v>7704</v>
       </c>
       <c r="H66" t="s">
         <v>49</v>
@@ -2396,11 +2391,8 @@
       <c r="I66" t="s">
         <v>47</v>
       </c>
-      <c r="J66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2406,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
         <v>7974</v>
@@ -2425,8 +2417,11 @@
       <c r="I67" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2440,10 +2435,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>8065</v>
+        <v>7974</v>
       </c>
       <c r="H68" t="s">
         <v>49</v>
@@ -2451,11 +2446,8 @@
       <c r="I68" t="s">
         <v>47</v>
       </c>
-      <c r="J68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2461,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
         <v>8065</v>
@@ -2480,8 +2472,11 @@
       <c r="I69" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2495,10 +2490,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>8073.4</v>
+        <v>8065</v>
       </c>
       <c r="H70" t="s">
         <v>49</v>
@@ -2506,11 +2501,8 @@
       <c r="I70" t="s">
         <v>47</v>
       </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2524,10 +2516,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>8078.4</v>
+        <v>8073.4</v>
       </c>
       <c r="H71" t="s">
         <v>49</v>
@@ -2539,7 +2531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2553,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>8081.4</v>
+        <v>8078.4</v>
       </c>
       <c r="H72" t="s">
         <v>49</v>
@@ -2568,7 +2560,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2582,7 +2574,7 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
         <v>8081.4</v>
@@ -2597,7 +2589,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2611,10 +2603,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>7956.4</v>
+        <v>8081.4</v>
       </c>
       <c r="H74" t="s">
         <v>49</v>
@@ -2626,7 +2618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2640,10 +2632,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>7966.4</v>
+        <v>7956.4</v>
       </c>
       <c r="H75" t="s">
         <v>49</v>
@@ -2655,7 +2647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2669,10 +2661,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>8156.15</v>
+        <v>7966.4</v>
       </c>
       <c r="H76" t="s">
         <v>49</v>
@@ -2684,7 +2676,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2698,10 +2690,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>8151.75</v>
+        <v>8156.15</v>
       </c>
       <c r="H77" t="s">
         <v>49</v>
@@ -2713,7 +2705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2727,10 +2719,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>8223.25</v>
+        <v>8151.75</v>
       </c>
       <c r="H78" t="s">
         <v>49</v>
@@ -2742,7 +2734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2756,10 +2748,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
-        <v>8223.93</v>
+        <v>8223.25</v>
       </c>
       <c r="H79" t="s">
         <v>49</v>
@@ -2771,7 +2763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2779,16 +2771,16 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>8223.93</v>
       </c>
       <c r="H80" t="s">
         <v>49</v>
@@ -2796,8 +2788,8 @@
       <c r="I80" t="s">
         <v>47</v>
       </c>
-      <c r="L80" t="s">
-        <v>53</v>
+      <c r="J80" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2814,7 +2806,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2843,7 +2835,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2872,7 +2864,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2901,7 +2893,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2930,7 +2922,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2959,10 +2951,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>1176</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>49</v>
@@ -2988,10 +2980,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="H87" t="s">
         <v>49</v>
@@ -3017,7 +3009,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3046,7 +3038,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3075,7 +3067,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3104,10 +3096,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>49</v>
@@ -3133,10 +3125,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H92" t="s">
         <v>49</v>
@@ -3162,7 +3154,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3191,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3220,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3249,10 +3241,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>49</v>
@@ -3278,10 +3270,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
         <v>49</v>
@@ -3307,10 +3299,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
@@ -3336,10 +3328,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H99" t="s">
         <v>49</v>
@@ -3365,10 +3357,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>49</v>
@@ -3394,10 +3386,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="H101" t="s">
         <v>49</v>
@@ -3423,10 +3415,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H102" t="s">
         <v>49</v>
@@ -3452,10 +3444,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
@@ -3481,7 +3473,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3510,10 +3502,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H105" t="s">
         <v>49</v>
@@ -3539,10 +3531,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>189.75</v>
+        <v>10</v>
       </c>
       <c r="H106" t="s">
         <v>49</v>
@@ -3568,10 +3560,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>189.75</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
@@ -3597,10 +3589,10 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
-        <v>71.5</v>
+        <v>0</v>
       </c>
       <c r="H108" t="s">
         <v>49</v>
@@ -3626,10 +3618,10 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
-        <v>0.68</v>
+        <v>71.5</v>
       </c>
       <c r="H109" t="s">
         <v>49</v>
@@ -3649,16 +3641,16 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="H110" t="s">
         <v>49</v>
@@ -3684,7 +3676,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3713,7 +3705,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3742,7 +3734,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3771,7 +3763,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3800,7 +3792,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3829,7 +3821,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3858,7 +3850,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3887,7 +3879,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3916,7 +3908,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3945,7 +3937,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3974,7 +3966,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4003,7 +3995,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4032,7 +4024,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4061,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4090,7 +4082,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4119,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4148,7 +4140,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4177,7 +4169,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4206,7 +4198,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4235,7 +4227,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4264,7 +4256,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4293,7 +4285,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4322,7 +4314,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4351,10 +4343,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>49</v>
@@ -4380,10 +4372,10 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H135" t="s">
         <v>49</v>
@@ -4409,7 +4401,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4438,10 +4430,10 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>49</v>
@@ -4467,10 +4459,10 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H138" t="s">
         <v>49</v>
@@ -4496,7 +4488,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4519,16 +4511,25 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>49</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
+      </c>
+      <c r="L140" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4545,7 +4546,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4565,7 +4566,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4585,7 +4586,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4605,7 +4606,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4625,7 +4626,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4645,7 +4646,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4665,7 +4666,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4685,7 +4686,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4705,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4725,7 +4726,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4745,7 +4746,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4765,7 +4766,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4785,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4805,7 +4806,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4825,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4845,7 +4846,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4865,7 +4866,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4885,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4905,7 +4906,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4925,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4945,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -4965,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -4985,7 +4986,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5005,22 +5006,10 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
-      </c>
-      <c r="G164">
-        <v>28.06575174</v>
-      </c>
-      <c r="H164" t="s">
-        <v>60</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
-      </c>
-      <c r="J164" t="s">
-        <v>61</v>
-      </c>
-      <c r="L164" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5037,10 +5026,22 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G165">
+        <v>28.06575174</v>
+      </c>
+      <c r="H165" t="s">
+        <v>60</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
+      </c>
+      <c r="J165" t="s">
+        <v>61</v>
+      </c>
+      <c r="L165" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5057,7 +5058,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5077,7 +5078,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5097,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5117,7 +5118,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5131,13 +5132,13 @@
         <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5157,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5177,7 +5178,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5197,7 +5198,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5217,7 +5218,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5237,7 +5238,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5257,7 +5258,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5277,7 +5278,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5297,7 +5298,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5317,7 +5318,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5337,7 +5338,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5357,7 +5358,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5377,7 +5378,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5397,7 +5398,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5417,7 +5418,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5437,7 +5438,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5457,7 +5458,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5477,7 +5478,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5497,7 +5498,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5517,7 +5518,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5537,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5557,7 +5558,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5577,7 +5578,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -5597,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5617,22 +5618,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
-      </c>
-      <c r="G194">
-        <v>2445.6353479999998</v>
-      </c>
-      <c r="H194" t="s">
-        <v>60</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
-      </c>
-      <c r="J194" t="s">
-        <v>61</v>
-      </c>
-      <c r="L194" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -5649,10 +5638,22 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G195">
+        <v>2445.6353479999998</v>
+      </c>
+      <c r="H195" t="s">
+        <v>60</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
+      </c>
+      <c r="J195" t="s">
+        <v>61</v>
+      </c>
+      <c r="L195" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5669,7 +5670,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
@@ -5689,7 +5690,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5709,7 +5710,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -5729,7 +5730,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5743,13 +5744,13 @@
         <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5769,7 +5770,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5789,7 +5790,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5809,7 +5810,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5829,7 +5830,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5849,7 +5850,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5869,7 +5870,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -5889,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -5909,13 +5910,13 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -5929,13 +5930,13 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -5949,13 +5950,13 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -5969,13 +5970,13 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -5989,13 +5990,13 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -6009,13 +6010,13 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -6029,13 +6030,13 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -6049,13 +6050,13 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -6069,13 +6070,13 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -6089,13 +6090,13 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6109,13 +6110,13 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6129,13 +6130,13 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6149,13 +6150,13 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -6169,13 +6170,13 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -6189,13 +6190,13 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -6209,13 +6210,13 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -6229,22 +6230,10 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
-      </c>
-      <c r="G224">
-        <v>3.4329493680000001</v>
-      </c>
-      <c r="H224" t="s">
-        <v>63</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
-      </c>
-      <c r="J224" t="s">
-        <v>61</v>
-      </c>
-      <c r="L224" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6261,10 +6250,22 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G225">
+        <v>3.4329493680000001</v>
+      </c>
+      <c r="H225" t="s">
+        <v>63</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
+      </c>
+      <c r="J225" t="s">
+        <v>61</v>
+      </c>
+      <c r="L225" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6281,7 +6282,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6301,7 +6302,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6321,7 +6322,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
@@ -6341,7 +6342,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
@@ -6355,25 +6356,16 @@
         <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>49</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>47</v>
-      </c>
-      <c r="L230" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6390,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6419,7 +6411,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6448,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6477,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6506,7 +6498,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6535,7 +6527,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6564,7 +6556,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6593,7 +6585,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6622,7 +6614,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6651,7 +6643,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6680,7 +6672,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6709,7 +6701,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6738,7 +6730,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6767,7 +6759,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6796,7 +6788,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6825,7 +6817,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6854,7 +6846,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6883,7 +6875,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6912,7 +6904,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6941,7 +6933,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6970,7 +6962,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -6999,7 +6991,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7028,7 +7020,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7057,10 +7049,10 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="H254" t="s">
         <v>49</v>
@@ -7086,10 +7078,10 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H255" t="s">
         <v>49</v>
@@ -7115,7 +7107,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7144,10 +7136,10 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H257" t="s">
         <v>49</v>
@@ -7173,10 +7165,10 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H258" t="s">
         <v>49</v>
@@ -7202,7 +7194,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7225,25 +7217,25 @@
         <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>49</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
       </c>
-      <c r="J260" t="s">
-        <v>65</v>
-      </c>
       <c r="L260" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7260,10 +7252,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.33900221899999999</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7289,10 +7281,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
-        <v>0.32702121899999997</v>
+        <v>0.33900221899999999</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7318,10 +7310,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
-        <v>0.36759404600000001</v>
+        <v>0.32702121899999997</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7347,10 +7339,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
-        <v>0.40583428799999999</v>
+        <v>0.36759404600000001</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7376,10 +7368,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
-        <v>0.34368505900000001</v>
+        <v>0.40583428799999999</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7405,10 +7397,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
-        <v>0.29132268900000002</v>
+        <v>0.34368505900000001</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7434,10 +7426,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
-        <v>0.309843755</v>
+        <v>0.29132268900000002</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7463,10 +7455,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
-        <v>0.30893542499999999</v>
+        <v>0.309843755</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7492,10 +7484,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
-        <v>0.35843194099999998</v>
+        <v>0.30893542499999999</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7521,10 +7513,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
-        <v>0.31339508399999999</v>
+        <v>0.35843194099999998</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7550,10 +7542,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
-        <v>0.363180842</v>
+        <v>0.31339508399999999</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7579,10 +7571,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
-        <v>0.27987595799999998</v>
+        <v>0.363180842</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7608,10 +7600,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
-        <v>0.31186728600000002</v>
+        <v>0.27987595799999998</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7637,10 +7629,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
-        <v>0.29763119900000001</v>
+        <v>0.31186728600000002</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7666,10 +7658,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
-        <v>0.28598605100000002</v>
+        <v>0.29763119900000001</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7695,10 +7687,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
-        <v>0.27258165299999998</v>
+        <v>0.28598605100000002</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7724,10 +7716,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
-        <v>0.28382769099999999</v>
+        <v>0.27258165299999998</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7753,10 +7745,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
-        <v>0.29544482999999999</v>
+        <v>0.28382769099999999</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7782,10 +7774,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
-        <v>0.29761045400000002</v>
+        <v>0.29544482999999999</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7811,10 +7803,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
-        <v>0.30287183600000001</v>
+        <v>0.29761045400000002</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7840,10 +7832,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
-        <v>0.26936366099999998</v>
+        <v>0.30287183600000001</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7869,10 +7861,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
-        <v>0.31181020799999998</v>
+        <v>0.26936366099999998</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7898,10 +7890,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
-        <v>0.30812340599999999</v>
+        <v>0.31181020799999998</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7927,10 +7919,10 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
-        <v>0.31657981200000002</v>
+        <v>0.30812340599999999</v>
       </c>
       <c r="I284" t="s">
         <v>47</v>
@@ -7956,10 +7948,10 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
-        <v>0.32801866000000002</v>
+        <v>0.31657981200000002</v>
       </c>
       <c r="I285" t="s">
         <v>47</v>
@@ -7985,10 +7977,10 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
-        <v>0.30684676700000002</v>
+        <v>0.32801866000000002</v>
       </c>
       <c r="I286" t="s">
         <v>47</v>
@@ -8014,7 +8006,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
         <v>0.30684676700000002</v>
@@ -8043,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
         <v>0.30684676700000002</v>
@@ -8072,10 +8064,10 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
-        <v>0.31726102</v>
+        <v>0.30684676700000002</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8095,16 +8087,16 @@
         <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.31726102</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8113,7 +8105,7 @@
         <v>65</v>
       </c>
       <c r="L290" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8130,10 +8122,10 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.23962008900000001</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
@@ -8159,7 +8151,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
         <v>0.23962008900000001</v>
@@ -8188,7 +8180,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
         <v>0.23962008900000001</v>
@@ -8217,7 +8209,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
         <v>0.23962008900000001</v>
@@ -8246,7 +8238,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
         <v>0.23962008900000001</v>
@@ -8275,7 +8267,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
         <v>0.23962008900000001</v>
@@ -8304,7 +8296,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
         <v>0.23962008900000001</v>
@@ -8333,7 +8325,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
         <v>0.23962008900000001</v>
@@ -8362,7 +8354,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
         <v>0.23962008900000001</v>
@@ -8391,7 +8383,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
         <v>0.23962008900000001</v>
@@ -8420,7 +8412,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
         <v>0.23962008900000001</v>
@@ -8449,7 +8441,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
         <v>0.23962008900000001</v>
@@ -8478,7 +8470,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
         <v>0.23962008900000001</v>
@@ -8507,7 +8499,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
         <v>0.23962008900000001</v>
@@ -8536,7 +8528,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
         <v>0.23962008900000001</v>
@@ -8565,7 +8557,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
         <v>0.23962008900000001</v>
@@ -8594,7 +8586,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
         <v>0.23962008900000001</v>
@@ -8623,7 +8615,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
         <v>0.23962008900000001</v>
@@ -8652,7 +8644,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
         <v>0.23962008900000001</v>
@@ -8681,7 +8673,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
         <v>0.23962008900000001</v>
@@ -8710,7 +8702,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
         <v>0.23962008900000001</v>
@@ -8739,7 +8731,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
         <v>0.23962008900000001</v>
@@ -8768,7 +8760,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
         <v>0.23962008900000001</v>
@@ -8797,7 +8789,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
         <v>0.23962008900000001</v>
@@ -8826,7 +8818,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
         <v>0.23962008900000001</v>
@@ -8855,7 +8847,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
         <v>0.23962008900000001</v>
@@ -8884,7 +8876,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.23962008900000001</v>
@@ -8913,7 +8905,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.23962008900000001</v>
@@ -8942,7 +8934,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.23962008900000001</v>
@@ -8957,11 +8949,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.23962008900000001</v>
+      </c>
+      <c r="I320" t="s">
+        <v>47</v>
+      </c>
+      <c r="J320" t="s">
+        <v>65</v>
+      </c>
+      <c r="L320" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/elec/CHE_convelec_hydrodam.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_hydrodam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBC3911-1B9B-4F4D-B612-08AF302BF4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4016EC7D-7613-C442-AF3C-9BC662E315E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,9 +362,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -402,9 +402,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,26 +437,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,26 +472,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,8 +651,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="5" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7255,7 +7221,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.33900221899999999</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -8125,7 +8091,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.23962008900000001</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
